--- a/biology/Zoologie/Grallaire_à_ventre_fauve/Grallaire_à_ventre_fauve.xlsx
+++ b/biology/Zoologie/Grallaire_à_ventre_fauve/Grallaire_à_ventre_fauve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_ventre_fauve</t>
+          <t>Grallaire_à_ventre_fauve</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylopezus fulviventris
 La Grallaire à ventre fauve (Hylopezus fulviventris) est une espèce d'oiseaux de la famille des Grallariidae vivant en Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_ventre_fauve</t>
+          <t>Grallaire_à_ventre_fauve</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Hylopezus fulviventris a été initialement décrite en 1858 par Philip Lutley Sclater sous le protonyme de Grallaria fulviventris.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_ventre_fauve</t>
+          <t>Grallaire_à_ventre_fauve</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte mesure environ 14 cm pour un poids de 57 g[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte mesure environ 14 cm pour un poids de 57 g.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_ventre_fauve</t>
+          <t>Grallaire_à_ventre_fauve</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Colombie, en Équateur et au Pérou[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Colombie, en Équateur et au Pérou.
 Son habitat naturel est subtropical ou des forêts tropicales humides[réf. nécessaire].
 </t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A0_ventre_fauve</t>
+          <t>Grallaire_à_ventre_fauve</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 10.2, 2020) :
 sous-espèce Hylopezus fulviventris caquetae Chapman, 1923 - Sud-Est de la Colombie
 sous-espèce Hylopezus fulviventris fulviventris (Sclater, PL, 1858) - Est de l'Équateur et Nord-Est du Pérou</t>
         </is>
